--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Final.xlsx
@@ -5,15 +5,15 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E238A7C4-CA43-4853-B452-E69D860AFA51}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D470BF-4A8D-431B-BF94-411669A55783}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -27,6 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
     <t>ACCOUNTS</t>
   </si>
   <si>
@@ -36,56 +45,40 @@
     <t>TO INCREASE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fees Earned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Insurance Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accounts Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accounts Receivable</t>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Insurance Expense</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Stockholders' Equity</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>Asset</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
     <t>debit</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Stockholders' Equity</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
-    <t>Liability</t>
-  </si>
-  <si>
-    <t>Asset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,13 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,13 +122,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,15 +170,6 @@
       <top/>
       <bottom style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -206,14 +197,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FFFABF8F"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -223,213 +216,227 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFABF8F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFABF8F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -580,9 +587,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFABF8F"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFD0F3FC"/>
-      <color rgb="FF8DB4E2"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
   </colors>
@@ -919,135 +925,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="1.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="19" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C1:I1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.3_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D470BF-4A8D-431B-BF94-411669A55783}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F3F726-2A17-4E3B-8B4E-B6ADBAF492AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,14 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,17 +168,8 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -194,11 +177,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFFABF8F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -206,30 +187,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFFABF8F"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFABF8F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFABF8F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFABF8F"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,54 +339,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,8 +366,25 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -925,146 +874,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="5"/>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="G3:G8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
